--- a/biology/Histoire de la zoologie et de la botanique/Philipp_Christoph_Zeller/Philipp_Christoph_Zeller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philipp_Christoph_Zeller/Philipp_Christoph_Zeller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Christoph Zeller est un entomologiste wurtembergeois, né le 9 avril 1808 à Steinheim an der Murr dans le royaume de Wurtemberg et mort le 27 mars 1883 à Stettin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille s’installe après sa naissance à Francfort-sur-l'Oder où il fait ses études au Gymnasium de la ville mais l’histoire naturelle n’y est pas enseignée. Il découvre l’entomologie seul, aidé par Alois Metzner, principalement en recopiant des ouvrages sur les insectes.
 Après des études à l’université de Berlin, il enseigne dans une école primaire de Glogau en 1835 puis au Gymnasium de Francfort. Ses premières études entomologiques sur les coléoptères et les diptères lui valent l’admiration de Johann Wilhelm Meigen (1764-1845). En 1852, le roi de Prusse lui attribue le titre de professeur. Peu de temps après, il se rend en Grande-Bretagne accompagné par son ami Carl August Dohrn (1806-1892). Il visite ses correspondants comme Henry Tibbats Stainton (1822-1892), John William Douglas (1814-1905) et Henry Doubleday (1809-1875) et rencontre de nombreux autres entomologistes dont John Obadiah Westwood (1805-1893).
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Versuch einer naturgemässen Eintheilung der Schaben, Tinea (Oken's Isis, 1839).
 Kritische Bestimmung der in Reaumur's Memoiren vorkommenden Lepidopteren (Isis, 1838)
